--- a/[2] 설계/요구사항_정의서.xlsx
+++ b/[2] 설계/요구사항_정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5462s\Desktop\Folder\TransCompiler_for_beginner\[2] 구현\Total\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5462s\Desktop\Folder\TransCompiler_for_beginner\[2] 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC54CD5-B11A-494B-A424-D67323C6784C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B1F012-6253-4417-B727-1A2A3EA4A2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서" sheetId="1" r:id="rId1"/>
@@ -718,7 +718,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,18 +838,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1430,9 +1418,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:O21"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -1446,7 +1434,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" s="2" customFormat="1">
+    <row r="2" spans="2:5" s="2" customFormat="1">
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1460,7 +1448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:5">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1474,7 +1462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:5">
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
@@ -1488,7 +1476,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:5">
       <c r="B5" s="4" t="s">
         <v>63</v>
       </c>
@@ -1502,7 +1490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:5">
       <c r="B6" s="4" t="s">
         <v>63</v>
       </c>
@@ -1516,7 +1504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:5">
       <c r="B7" s="4" t="s">
         <v>63</v>
       </c>
@@ -1530,7 +1518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:5">
       <c r="B8" s="4" t="s">
         <v>63</v>
       </c>
@@ -1543,15 +1531,8 @@
       <c r="E8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-    </row>
-    <row r="9" spans="2:15">
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="4" t="s">
         <v>63</v>
       </c>
@@ -1564,15 +1545,8 @@
       <c r="E9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-    </row>
-    <row r="10" spans="2:15">
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="4" t="s">
         <v>63</v>
       </c>
@@ -1585,15 +1559,8 @@
       <c r="E10" s="5">
         <v>12</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-    </row>
-    <row r="11" spans="2:15">
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="4" t="s">
         <v>88</v>
       </c>
@@ -1606,68 +1573,26 @@
       <c r="E11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-    </row>
-    <row r="12" spans="2:15">
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="4"/>
       <c r="E12" s="5"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-    </row>
-    <row r="13" spans="2:15">
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="4"/>
       <c r="E13" s="5"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-    </row>
-    <row r="14" spans="2:15">
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="4"/>
       <c r="E14" s="5"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-    </row>
-    <row r="15" spans="2:15">
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="4"/>
       <c r="E15" s="5"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-    </row>
-    <row r="16" spans="2:15">
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" s="4"/>
       <c r="E16" s="5"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="4"/>
@@ -1937,8 +1862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1984,7 +1909,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>55</v>
@@ -2017,14 +1942,14 @@
       <c r="C5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="42" t="s">
-        <v>57</v>
+      <c r="F5" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>55</v>
@@ -2037,13 +1962,13 @@
       <c r="C6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="22" t="s">
         <v>50</v>
       </c>
       <c r="G6" s="24" t="s">
@@ -2057,13 +1982,13 @@
       <c r="C7" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="22" t="s">
         <v>57</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -2077,13 +2002,13 @@
       <c r="C8" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="22" t="s">
         <v>57</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -2097,14 +2022,14 @@
       <c r="C9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="42" t="s">
-        <v>57</v>
+      <c r="F9" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>63</v>
@@ -2117,13 +2042,13 @@
       <c r="C10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="22" t="s">
         <v>57</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -2137,13 +2062,13 @@
       <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="22" t="s">
         <v>57</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -2157,14 +2082,14 @@
       <c r="C12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="42" t="s">
-        <v>57</v>
+      <c r="F12" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>63</v>
@@ -2177,13 +2102,13 @@
       <c r="C13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="22" t="s">
         <v>57</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -2197,13 +2122,13 @@
       <c r="C14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="22" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -2217,13 +2142,13 @@
       <c r="C15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -2237,13 +2162,13 @@
       <c r="C16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -2257,13 +2182,13 @@
       <c r="C17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -2277,13 +2202,13 @@
       <c r="C18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -2297,13 +2222,13 @@
       <c r="C19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -2317,13 +2242,13 @@
       <c r="C20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -2334,9 +2259,6 @@
       <c r="B21" s="21">
         <v>19</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41"/>
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="2:7">
